--- a/Multiknapsack/results/fixed_recourse/singlecut/M50_N100_T0_a50_reformulation.xlsx
+++ b/Multiknapsack/results/fixed_recourse/singlecut/M50_N100_T0_a50_reformulation.xlsx
@@ -51,7 +51,7 @@
     <t>num quad cons</t>
   </si>
   <si>
-    <t>OPTIMAL</t>
+    <t>TIME_LIMIT</t>
   </si>
 </sst>
 </file>
@@ -440,13 +440,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-790.4501666393605</v>
+        <v>-411.51897256288123</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
+        <v>7.896804936324448</v>
       </c>
       <c r="D2">
-        <v>52.974311645</v>
+        <v>3631.730240306</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -466,13 +466,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-796.6855908813168</v>
+        <v>-411.3960477688105</v>
       </c>
       <c r="C3">
-        <v>2.853995077175629e-14</v>
+        <v>6.48490271920032</v>
       </c>
       <c r="D3">
-        <v>52.914316232</v>
+        <v>3629.946852463</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -492,13 +492,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-795.4333667618575</v>
+        <v>-412.3476210996386</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
+        <v>4.785054539296505</v>
       </c>
       <c r="D4">
-        <v>49.105490844</v>
+        <v>3934.629393272</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -518,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-808.2943571304374</v>
+        <v>-416.71129461895856</v>
       </c>
       <c r="C5">
-        <v>2.8130058491366133e-14</v>
+        <v>1.6047428618662518</v>
       </c>
       <c r="D5">
-        <v>47.576842414</v>
+        <v>3688.680436319</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -544,13 +544,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-786.6718742477501</v>
+        <v>-408.2905883517202</v>
       </c>
       <c r="C6">
-        <v>0.0</v>
+        <v>6.699851187854239</v>
       </c>
       <c r="D6">
-        <v>49.23800947</v>
+        <v>3636.343992145</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -570,13 +570,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-781.4694215272531</v>
+        <v>-403.99029359095584</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
+        <v>3.0602447072469063</v>
       </c>
       <c r="D7">
-        <v>48.224205347</v>
+        <v>3740.454934876</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -596,13 +596,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-778.6638845224827</v>
+        <v>-400.19199641565194</v>
       </c>
       <c r="C8">
-        <v>1.460024536662826e-14</v>
+        <v>1.075386481294644</v>
       </c>
       <c r="D8">
-        <v>48.009752495</v>
+        <v>3651.765098001</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -622,13 +622,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-800.5274282274553</v>
+        <v>-412.09265615224575</v>
       </c>
       <c r="C9">
-        <v>0.0</v>
+        <v>6.121833590641586</v>
       </c>
       <c r="D9">
-        <v>48.119484685</v>
+        <v>3600.644434021</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -648,13 +648,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-793.5538497949096</v>
+        <v>-408.4459810048513</v>
       </c>
       <c r="C10">
-        <v>0.0</v>
+        <v>6.61491639004093</v>
       </c>
       <c r="D10">
-        <v>48.232115836</v>
+        <v>3633.253491724</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -674,13 +674,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-783.4743422616683</v>
+        <v>-403.1039288610365</v>
       </c>
       <c r="C11">
-        <v>0.0</v>
+        <v>1.013586529911097</v>
       </c>
       <c r="D11">
-        <v>48.906605754</v>
+        <v>3693.719415826</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
